--- a/Data Analysis Summary Sheet.xlsx
+++ b/Data Analysis Summary Sheet.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Data_Mining_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F76F970-465F-4E33-892D-80CEE96B1E8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C3891-5D6B-4F19-B507-0A6049C4939B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7620" xr2:uid="{E4619B0E-603B-4870-8C4F-A17BF5E6969D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Correlation" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$L$41</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
   <si>
     <t>amount_tsh</t>
   </si>
@@ -150,12 +152,6 @@
     <t>status_group</t>
   </si>
   <si>
-    <t xml:space="preserve">Include </t>
-  </si>
-  <si>
-    <t>Exclude</t>
-  </si>
-  <si>
     <t>Features</t>
   </si>
   <si>
@@ -169,13 +165,31 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Missings</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>Missing which can be recovered</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +211,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +238,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,11 +274,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -253,15 +300,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,39 +639,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E738CED1-7738-462E-9BE9-A7435E00315F}">
-  <dimension ref="B1:J42"/>
+  <dimension ref="B1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="22" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="8.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="10" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="21.5546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="4"/>
+    <col min="15" max="15" width="29.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,9 +692,18 @@
         <v>98</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -623,15 +711,18 @@
         <v>9</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
@@ -639,12 +730,18 @@
         <v>55</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -652,12 +749,18 @@
         <v>356</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -665,57 +768,81 @@
         <v>20</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="J6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -723,12 +850,18 @@
         <v>1897</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -736,9 +869,16 @@
         <v>2428</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,9 +886,16 @@
         <v>2145</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -756,9 +903,16 @@
         <v>57517</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -766,9 +920,16 @@
         <v>125</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,9 +937,16 @@
         <v>57516</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -786,9 +954,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -796,9 +971,16 @@
         <v>5</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -806,31 +988,52 @@
         <v>65</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="J18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>7</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
@@ -838,9 +1041,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
@@ -848,9 +1058,16 @@
         <v>1049</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
@@ -858,9 +1075,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -868,31 +1092,52 @@
         <v>6</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+      <c r="J24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>5</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -900,29 +1145,54 @@
         <v>1</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="J27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>21</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>27</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -930,55 +1200,90 @@
         <v>2696</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
+      <c r="J30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>12</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
+      <c r="J31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
@@ -986,9 +1291,16 @@
         <v>3</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,9 +1308,16 @@
         <v>19287</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>15</v>
       </c>
@@ -1006,9 +1325,16 @@
         <v>2092</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1016,50 +1342,388 @@
         <v>8</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+      <c r="J38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1">
         <v>37400</v>
       </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J42" s="5"/>
+      <c r="J41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D49" xr:uid="{CAA25624-8EF3-4EE9-82D7-ADBEE6A466D6}"/>
-  <sortState ref="B2:C48">
-    <sortCondition ref="B1"/>
+  <autoFilter ref="J1:L41" xr:uid="{2EA206D3-E81A-491D-8242-23CB3F2EAFBF}">
+    <sortState ref="J2:L41">
+      <sortCondition ref="K1:K41"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="J2:K43">
+    <sortCondition ref="J1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB378DCB-F446-41C9-8E9E-2C4BB44B4E28}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67475F3-2A18-47D3-B2A0-2D9CF33429E3}">
+  <dimension ref="A3:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7.6650295130590407E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2.21341633461247E-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.1491554002503</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-5.2670179945981901E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-3.57513676838766E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-0.42580216325005399</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.9437300319679399E-3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7.2368809452433604E-3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.3873316859957701E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6.8368328874363199E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-2.6812994577949101E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-0.18352066048921301</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3.4197012923368297E-2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-0.22101794815369599</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-2.0376777089326399E-2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-2.3599405413481201E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-0.17123304436203399</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.15139834306748601</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-0.20101961578018501</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-4.4775115732414604E-3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.67860230678889</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1.6287636573856599E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.135003266737867</v>
+      </c>
+      <c r="D11" s="9">
+        <v>8.6589705339984099E-2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-2.2151890969596699E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3.8183592683338399E-3</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9.4088421475294406E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6.1831422517590703E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>6.7915211041688003E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.65872697436387295</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.39673162589177102</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-0.245277556646565</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.6055629174186402E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3.1724056815404397E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4.83151853225448E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.26091028039958603</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:J12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Analysis Summary Sheet.xlsx
+++ b/Data Analysis Summary Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Data_Mining_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C3891-5D6B-4F19-B507-0A6049C4939B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9CC59-B5AF-4BE7-AD9D-BB8B219F61B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7620" xr2:uid="{E4619B0E-603B-4870-8C4F-A17BF5E6969D}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="B1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Analysis Summary Sheet.xlsx
+++ b/Data Analysis Summary Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Data_Mining_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F9CC59-B5AF-4BE7-AD9D-BB8B219F61B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD79BD-D4E0-44E3-88B2-8B9835D7AF08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7620" xr2:uid="{E4619B0E-603B-4870-8C4F-A17BF5E6969D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
   <si>
     <t>amount_tsh</t>
   </si>
@@ -158,9 +158,6 @@
     <t>nUnique</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -183,6 +180,15 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -302,7 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,6 +335,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +655,7 @@
   <dimension ref="B1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +665,7 @@
     <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="22" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="4"/>
     <col min="10" max="10" width="21.5546875" style="4" customWidth="1"/>
@@ -671,18 +684,19 @@
         <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F1" s="14"/>
       <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -691,17 +705,20 @@
       <c r="C2" s="1">
         <v>98</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="J2" s="13" t="s">
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="J2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -711,16 +728,17 @@
         <v>9</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="J3" s="13" t="s">
+      <c r="F3" s="6"/>
+      <c r="J3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="10"/>
+      <c r="K3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -730,16 +748,17 @@
         <v>55</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="J4" s="13" t="s">
+      <c r="F4" s="6"/>
+      <c r="J4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="10"/>
+      <c r="K4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -749,16 +768,16 @@
         <v>356</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="10"/>
+      <c r="K5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -768,16 +787,16 @@
         <v>20</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="10"/>
+      <c r="K6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -787,18 +806,18 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="10"/>
+      <c r="K7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -808,18 +827,18 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -829,71 +848,75 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1897</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1897</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="10"/>
+      <c r="K10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2428</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="J11" s="12" t="s">
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2145</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="O11" s="10"/>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>2145</v>
+        <v>2428</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="O12" s="10"/>
+      <c r="K12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -903,203 +926,215 @@
         <v>57517</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="O13" s="10"/>
+      <c r="K13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2092</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="5">
         <v>125</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="J14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>57516</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="J15" s="12" t="s">
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="O15" s="10"/>
+      <c r="K15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>57516</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="J16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="J16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="J17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>65</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="J18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6">
-        <v>7</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="O19" s="10"/>
+      <c r="K19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6">
         <v>7</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="J20" s="12" t="s">
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="O20" s="10"/>
+      <c r="K20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="J21" s="12" t="s">
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="O21" s="10"/>
+      <c r="K21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>1049</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="O22" s="10"/>
+      <c r="K22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>1049</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="O23" s="10"/>
+      <c r="K23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="O24" s="10"/>
+      <c r="K24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
@@ -1109,16 +1144,16 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="O25" s="10"/>
+      <c r="K25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
@@ -1127,15 +1162,17 @@
       <c r="C26" s="6">
         <v>5</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="J26" s="12" t="s">
+      <c r="D26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="11"/>
-      <c r="O26" s="10"/>
+      <c r="K26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -1144,15 +1181,17 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="J27" s="12" t="s">
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="O27" s="10"/>
+      <c r="K27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
@@ -1162,16 +1201,16 @@
         <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="O28" s="10"/>
+      <c r="K28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
@@ -1181,50 +1220,54 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="O29" s="10"/>
+      <c r="K29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="15">
         <v>2696</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="J30" s="12" t="s">
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="O30" s="10"/>
+      <c r="K30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="15">
         <v>12</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="J31" s="12" t="s">
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="O31" s="10"/>
+      <c r="K31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -1234,16 +1277,16 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="O32" s="10"/>
+      <c r="K32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
@@ -1253,16 +1296,16 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="11"/>
-      <c r="O33" s="10"/>
+      <c r="K33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -1272,16 +1315,16 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="O34" s="10"/>
+      <c r="K34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
@@ -1290,15 +1333,17 @@
       <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="J35" s="12" t="s">
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="11"/>
-      <c r="O35" s="10"/>
+      <c r="K35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="O35" s="9"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -1307,49 +1352,55 @@
       <c r="C36" s="1">
         <v>19287</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="J36" s="12" t="s">
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="O36" s="10"/>
+      <c r="K36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2092</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="J37" s="12" t="s">
+      <c r="B37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L37" s="11"/>
-      <c r="O37" s="10"/>
+      <c r="K37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="J38" s="12" t="s">
+      <c r="B38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="5">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="O38" s="10"/>
+      <c r="K38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
@@ -1359,16 +1410,16 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L39" s="11"/>
-      <c r="O39" s="10"/>
+      <c r="K39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
@@ -1378,16 +1429,16 @@
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40" s="11"/>
-      <c r="O40" s="10"/>
+      <c r="K40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
@@ -1396,25 +1447,25 @@
       <c r="C41" s="1">
         <v>37400</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L41" s="11"/>
+      <c r="K41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="J1:L41" xr:uid="{2EA206D3-E81A-491D-8242-23CB3F2EAFBF}">
@@ -1466,248 +1517,248 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>7.6650295130590407E-2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2.21341633461247E-2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.1491554002503</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>-5.2670179945981901E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>-3.57513676838766E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>-0.42580216325005399</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>2.9437300319679399E-3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>7.2368809452433604E-3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>2.3873316859957701E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>6.8368328874363199E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>-2.6812994577949101E-2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>-0.18352066048921301</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>3.4197012923368297E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>-0.22101794815369599</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>-2.0376777089326399E-2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>-2.3599405413481201E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>-0.17123304436203399</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0.15139834306748601</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>-0.20101961578018501</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>-4.4775115732414604E-3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0.67860230678889</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>1.6287636573856599E-2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.135003266737867</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>8.6589705339984099E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>-2.2151890969596699E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>3.8183592683338399E-3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>9.4088421475294406E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>6.1831422517590703E-2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>1</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>6.7915211041688003E-2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.65872697436387295</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0.39673162589177102</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>-0.245277556646565</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>2.6055629174186402E-2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>3.1724056815404397E-2</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>4.83151853225448E-2</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.26091028039958603</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
     </row>
